--- a/Epsitec.Cresus/App.Aider/Samples/EERV Région 2/2060/supergroup.xlsx
+++ b/Epsitec.Cresus/App.Aider/Samples/EERV Région 2/2060/supergroup.xlsx
@@ -113,10 +113,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -423,7 +423,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -443,134 +443,134 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="2">
-        <v>4050000000</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="4">
+        <v>2060000000</v>
+      </c>
+      <c r="C2" s="2">
         <v>4030000001</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="2">
-        <v>4050000000</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="4">
+        <v>2060000000</v>
+      </c>
+      <c r="C3" s="2">
         <v>4030000002</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="2">
-        <v>4050000000</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="4">
+        <v>2060000000</v>
+      </c>
+      <c r="C4" s="2">
         <v>4030000003</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="2">
-        <v>4050000000</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="4">
+        <v>2060000000</v>
+      </c>
+      <c r="C5" s="2">
         <v>4030000005</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="2">
-        <v>4050000000</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="4">
+        <v>2060000000</v>
+      </c>
+      <c r="C6" s="2">
         <v>4030000006</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="2">
-        <v>4050000000</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="4">
+        <v>2060000000</v>
+      </c>
+      <c r="C7" s="2">
         <v>4030000007</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="2">
-        <v>4050000000</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B8" s="4">
+        <v>2060000000</v>
+      </c>
+      <c r="C8" s="2">
         <v>4030000008</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="2">
-        <v>4050000000</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="B9" s="4">
+        <v>2060000000</v>
+      </c>
+      <c r="C9" s="2">
         <v>4030000009</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="2">
-        <v>4050000000</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="B10" s="4">
+        <v>2060000000</v>
+      </c>
+      <c r="C10" s="2">
         <v>4030000011</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="2">
-        <v>4050000000</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="B11" s="4">
+        <v>2060000000</v>
+      </c>
+      <c r="C11" s="2">
         <v>4030000012</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="2">
-        <v>4050000000</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="B12" s="4">
+        <v>2060000000</v>
+      </c>
+      <c r="C12" s="2">
         <v>4030000013</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="2">
-        <v>4050000000</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="B13" s="4">
+        <v>2060000000</v>
+      </c>
+      <c r="C13" s="2">
         <v>4030000014</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Epsitec.Cresus/App.Aider/Samples/EERV Région 2/2060/supergroup.xlsx
+++ b/Epsitec.Cresus/App.Aider/Samples/EERV Région 2/2060/supergroup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="555" windowWidth="27495" windowHeight="11445"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="23655" windowHeight="11445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>_Id</t>
   </si>
@@ -28,40 +28,70 @@
     <t>DesSG</t>
   </si>
   <si>
-    <t>Groupes morgiens d'origine</t>
-  </si>
-  <si>
-    <t>Jeunesse</t>
+    <t>Autorités d'Eglise</t>
+  </si>
+  <si>
+    <t>Enfance</t>
+  </si>
+  <si>
+    <t>ACTIVITES NON CLASSEES</t>
+  </si>
+  <si>
+    <t>Ass. Aumônerie EMS</t>
+  </si>
+  <si>
+    <t>Finances</t>
+  </si>
+  <si>
+    <t>Autorités civiles</t>
+  </si>
+  <si>
+    <t>Information/Journal</t>
+  </si>
+  <si>
+    <t>Présence et Solidarités</t>
+  </si>
+  <si>
+    <t>Terre Nouvelle</t>
+  </si>
+  <si>
+    <t>Aînés</t>
+  </si>
+  <si>
+    <t>Adultes</t>
+  </si>
+  <si>
+    <t>Oecuménisme</t>
+  </si>
+  <si>
+    <t>Autres engagés</t>
+  </si>
+  <si>
+    <t>Ventes et fêtes paroissiales</t>
   </si>
   <si>
     <t>REGISTRES PAROISSIAUX</t>
   </si>
   <si>
-    <t>Enfance</t>
-  </si>
-  <si>
-    <t>Aînés</t>
-  </si>
-  <si>
-    <t>Terre Nouvelle</t>
-  </si>
-  <si>
-    <t>Adultes</t>
-  </si>
-  <si>
-    <t>St-Nicolas</t>
-  </si>
-  <si>
     <t>Culte</t>
   </si>
   <si>
-    <t>Annuaire / responsables-animateurs</t>
-  </si>
-  <si>
-    <t>Noël</t>
-  </si>
-  <si>
-    <t>Secrétariat</t>
+    <t>Noëls villages</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>KT/Jeunesse</t>
+  </si>
+  <si>
+    <t>Taizé à Genève 2007</t>
+  </si>
+  <si>
+    <t>Avent</t>
+  </si>
+  <si>
+    <t>Grand Livre partenaires paroissiaux 2012</t>
   </si>
 </sst>
 </file>
@@ -113,10 +143,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -420,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -443,135 +473,245 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="4">
-        <v>2060000000</v>
-      </c>
-      <c r="C2" s="2">
-        <v>4030000001</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2">
+        <v>2060000000</v>
+      </c>
+      <c r="C2" s="3">
+        <v>305020100</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="4">
-        <v>2060000000</v>
-      </c>
-      <c r="C3" s="2">
-        <v>4030000002</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2">
+        <v>2060000000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>305020200</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="4">
-        <v>2060000000</v>
-      </c>
-      <c r="C4" s="2">
-        <v>4030000003</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="2">
+        <v>2060000000</v>
+      </c>
+      <c r="C4" s="3">
+        <v>305020300</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="4">
-        <v>2060000000</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4030000005</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="B5" s="2">
+        <v>2060000000</v>
+      </c>
+      <c r="C5" s="3">
+        <v>305020400</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="4">
-        <v>2060000000</v>
-      </c>
-      <c r="C6" s="2">
-        <v>4030000006</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="B6" s="2">
+        <v>2060000000</v>
+      </c>
+      <c r="C6" s="3">
+        <v>305020500</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="4">
-        <v>2060000000</v>
-      </c>
-      <c r="C7" s="2">
-        <v>4030000007</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="B7" s="2">
+        <v>2060000000</v>
+      </c>
+      <c r="C7" s="3">
+        <v>305020600</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="4">
-        <v>2060000000</v>
-      </c>
-      <c r="C8" s="2">
-        <v>4030000008</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="2">
+        <v>2060000000</v>
+      </c>
+      <c r="C8" s="3">
+        <v>305020700</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="4">
-        <v>2060000000</v>
-      </c>
-      <c r="C9" s="2">
-        <v>4030000009</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="B9" s="2">
+        <v>2060000000</v>
+      </c>
+      <c r="C9" s="3">
+        <v>305020800</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="4">
-        <v>2060000000</v>
-      </c>
-      <c r="C10" s="2">
-        <v>4030000011</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="B10" s="2">
+        <v>2060000000</v>
+      </c>
+      <c r="C10" s="3">
+        <v>305020900</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="4">
-        <v>2060000000</v>
-      </c>
-      <c r="C11" s="2">
-        <v>4030000012</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="B11" s="2">
+        <v>2060000000</v>
+      </c>
+      <c r="C11" s="3">
+        <v>305021000</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="4">
-        <v>2060000000</v>
-      </c>
-      <c r="C12" s="2">
-        <v>4030000013</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="B12" s="2">
+        <v>2060000000</v>
+      </c>
+      <c r="C12" s="3">
+        <v>305021100</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="4">
-        <v>2060000000</v>
-      </c>
-      <c r="C13" s="2">
-        <v>4030000014</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="B13" s="2">
+        <v>2060000000</v>
+      </c>
+      <c r="C13" s="3">
+        <v>305021200</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <v>2060000000</v>
+      </c>
+      <c r="C14" s="3">
+        <v>305021300</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <v>2060000000</v>
+      </c>
+      <c r="C15" s="3">
+        <v>305021400</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <v>2060000000</v>
+      </c>
+      <c r="C16" s="3">
+        <v>305021500</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <v>2060000000</v>
+      </c>
+      <c r="C17" s="3">
+        <v>305021600</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <v>2060000000</v>
+      </c>
+      <c r="C18" s="3">
+        <v>305021700</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="2">
+        <v>2060000000</v>
+      </c>
+      <c r="C19" s="3">
+        <v>305021800</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="2">
+        <v>2060000000</v>
+      </c>
+      <c r="C20" s="3">
+        <v>305021900</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="2">
+        <v>2060000000</v>
+      </c>
+      <c r="C21" s="3">
+        <v>305022000</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="2">
+        <v>2060000000</v>
+      </c>
+      <c r="C22" s="3">
+        <v>305022100</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="2">
+        <v>2060000000</v>
+      </c>
+      <c r="C23" s="3">
+        <v>305022200</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Epsitec.Cresus/App.Aider/Samples/EERV Région 2/2060/supergroup.xlsx
+++ b/Epsitec.Cresus/App.Aider/Samples/EERV Région 2/2060/supergroup.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -135,13 +135,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -453,7 +450,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -476,10 +473,10 @@
       <c r="B2" s="2">
         <v>2060000000</v>
       </c>
-      <c r="C2" s="3">
-        <v>305020100</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2">
+        <v>403110100</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -487,10 +484,10 @@
       <c r="B3" s="2">
         <v>2060000000</v>
       </c>
-      <c r="C3" s="3">
-        <v>305020200</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3">
+        <v>403110200</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -498,10 +495,10 @@
       <c r="B4" s="2">
         <v>2060000000</v>
       </c>
-      <c r="C4" s="3">
-        <v>305020300</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4">
+        <v>403110300</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -509,10 +506,10 @@
       <c r="B5" s="2">
         <v>2060000000</v>
       </c>
-      <c r="C5" s="3">
-        <v>305020400</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5">
+        <v>403110400</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -520,10 +517,10 @@
       <c r="B6" s="2">
         <v>2060000000</v>
       </c>
-      <c r="C6" s="3">
-        <v>305020500</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6">
+        <v>403110500</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -531,10 +528,10 @@
       <c r="B7" s="2">
         <v>2060000000</v>
       </c>
-      <c r="C7" s="3">
-        <v>305020600</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7">
+        <v>403110600</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -542,10 +539,10 @@
       <c r="B8" s="2">
         <v>2060000000</v>
       </c>
-      <c r="C8" s="3">
-        <v>305020700</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C8">
+        <v>403110700</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -553,10 +550,10 @@
       <c r="B9" s="2">
         <v>2060000000</v>
       </c>
-      <c r="C9" s="3">
-        <v>305020800</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9">
+        <v>403110800</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -564,10 +561,10 @@
       <c r="B10" s="2">
         <v>2060000000</v>
       </c>
-      <c r="C10" s="3">
-        <v>305020900</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10">
+        <v>403110900</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -575,10 +572,10 @@
       <c r="B11" s="2">
         <v>2060000000</v>
       </c>
-      <c r="C11" s="3">
-        <v>305021000</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11">
+        <v>403111000</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -586,10 +583,10 @@
       <c r="B12" s="2">
         <v>2060000000</v>
       </c>
-      <c r="C12" s="3">
-        <v>305021100</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C12">
+        <v>403111100</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -597,10 +594,10 @@
       <c r="B13" s="2">
         <v>2060000000</v>
       </c>
-      <c r="C13" s="3">
-        <v>305021200</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="C13">
+        <v>403111200</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -608,10 +605,10 @@
       <c r="B14" s="2">
         <v>2060000000</v>
       </c>
-      <c r="C14" s="3">
-        <v>305021300</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="C14">
+        <v>403111300</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -619,10 +616,10 @@
       <c r="B15" s="2">
         <v>2060000000</v>
       </c>
-      <c r="C15" s="3">
-        <v>305021400</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="C15">
+        <v>403111400</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -630,10 +627,10 @@
       <c r="B16" s="2">
         <v>2060000000</v>
       </c>
-      <c r="C16" s="3">
-        <v>305021500</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="C16">
+        <v>403111500</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -641,10 +638,10 @@
       <c r="B17" s="2">
         <v>2060000000</v>
       </c>
-      <c r="C17" s="3">
-        <v>305021600</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="C17">
+        <v>403111600</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -652,10 +649,10 @@
       <c r="B18" s="2">
         <v>2060000000</v>
       </c>
-      <c r="C18" s="3">
-        <v>305021700</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="C18">
+        <v>403111700</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -663,10 +660,10 @@
       <c r="B19" s="2">
         <v>2060000000</v>
       </c>
-      <c r="C19" s="3">
-        <v>305021800</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="C19">
+        <v>403111800</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -674,10 +671,10 @@
       <c r="B20" s="2">
         <v>2060000000</v>
       </c>
-      <c r="C20" s="3">
-        <v>305021900</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="C20">
+        <v>403111900</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -685,10 +682,10 @@
       <c r="B21" s="2">
         <v>2060000000</v>
       </c>
-      <c r="C21" s="3">
-        <v>305022000</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="C21">
+        <v>403112000</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -696,10 +693,10 @@
       <c r="B22" s="2">
         <v>2060000000</v>
       </c>
-      <c r="C22" s="3">
-        <v>305022100</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="C22">
+        <v>403112100</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -707,10 +704,10 @@
       <c r="B23" s="2">
         <v>2060000000</v>
       </c>
-      <c r="C23" s="3">
-        <v>305022200</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="C23">
+        <v>403112200</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>25</v>
       </c>
     </row>
